--- a/Data/Processed/Angiosperms/missing_powo_ipni/Araceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Araceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -20452,7 +20452,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gard. Chron. ser. 3, 2: 712. 1887 </t>
+          <t>Gard. Chron. ser. 3, 2: 712. 1887</t>
         </is>
       </c>
       <c r="J356" t="b">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 25(3): 367. 1898 [19 Jul 1898] </t>
+          <t>Bot. Jahrb. Syst. 25(3): 367. 1898 [19 Jul 1898]</t>
         </is>
       </c>
       <c r="J357" t="b">
@@ -20608,7 +20608,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 25(3): 416. 1898 [19 Jul 1898] </t>
+          <t>Bot. Jahrb. Syst. 25(3): 416. 1898 [19 Jul 1898]</t>
         </is>
       </c>
       <c r="J358" t="b">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willdenowia 35(1): 173 (-177; figs. 1-2, photos). 2005 [31 Aug 2005] </t>
+          <t>Willdenowia 35(1): 173 (-177; figs. 1-2, photos). 2005 [31 Aug 2005]</t>
         </is>
       </c>
       <c r="J359" t="b">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 25(3): 416. 1898 [19 Jul 1898] </t>
+          <t>Bot. Jahrb. Syst. 25(3): 416. 1898 [19 Jul 1898]</t>
         </is>
       </c>
       <c r="J360" t="b">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -20998,7 +20998,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 37(1): 126. 1905 [19 Sep 1905] </t>
+          <t>Bot. Jahrb. Syst. 37(1): 126. 1905 [19 Sep 1905]</t>
         </is>
       </c>
       <c r="J364" t="b">
@@ -21154,7 +21154,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novon 11(1): 104 (fig. 1D-F). 2001 [30 Apr 2001] </t>
+          <t>Novon 11(1): 104 (fig. 1D-F). 2001 [30 Apr 2001]</t>
         </is>
       </c>
       <c r="J365" t="b">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -21242,7 +21242,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 37(1): 121. 1905 [19 Sep 1905] </t>
+          <t>Bot. Jahrb. Syst. 37(1): 121. 1905 [19 Sep 1905]</t>
         </is>
       </c>
       <c r="J366" t="b">
